--- a/src/main/java/org/example/RCPLNP01.xlsx
+++ b/src/main/java/org/example/RCPLNP01.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gxportal-my.sharepoint.com/personal/tsampath_galaxe_com/Documents/Desktop/ospery/ABC074/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ReadWriteXl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{7B8F0949-DE46-462F-AC65-A1BA13F8796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B123BA5-C6FD-4502-9540-D8B36A7EDF5C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2CE098-CD83-4843-9D6F-5398435E9915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0728D187-2AF1-4380-A2C6-739707DE7D63}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0728D187-2AF1-4380-A2C6-739707DE7D63}"/>
   </bookViews>
   <sheets>
     <sheet name="000A" sheetId="1" r:id="rId1"/>
     <sheet name="000B" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,210 +37,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="132">
   <si>
     <t>Plan Code</t>
   </si>
   <si>
-    <t>Plan Eff</t>
-  </si>
-  <si>
-    <t>Plan</t>
+    <t>Plan Eff Date</t>
+  </si>
+  <si>
+    <t>Plan Term Date</t>
   </si>
   <si>
     <t>Plan Name</t>
   </si>
   <si>
-    <t>Plan Verify</t>
-  </si>
-  <si>
-    <t>Plan DEA</t>
-  </si>
-  <si>
-    <t>Plan Preferred</t>
-  </si>
-  <si>
-    <t>Plan Default</t>
-  </si>
-  <si>
-    <t>Plan Eligibility</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>Plan Level</t>
-  </si>
-  <si>
-    <t>Days Supply/Qty</t>
-  </si>
-  <si>
-    <t>Deductible/Cap</t>
-  </si>
-  <si>
-    <t>Plan Customer</t>
-  </si>
-  <si>
-    <t>Plan Patient</t>
-  </si>
-  <si>
-    <t>DUG Table</t>
-  </si>
-  <si>
-    <t>Plan Audit</t>
-  </si>
-  <si>
-    <t>Plan Future</t>
-  </si>
-  <si>
-    <t>ADD User</t>
-  </si>
-  <si>
-    <t>ADD</t>
-  </si>
-  <si>
-    <t>ADD Program</t>
-  </si>
-  <si>
-    <t>CHG User</t>
-  </si>
-  <si>
-    <t>CHG</t>
-  </si>
-  <si>
-    <t>CHG Program</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Term Date</t>
-  </si>
-  <si>
-    <t>Member</t>
-  </si>
-  <si>
-    <t>RX Network</t>
-  </si>
-  <si>
-    <t>Validation</t>
-  </si>
-  <si>
-    <t>Formulary</t>
-  </si>
-  <si>
-    <t>Drug Status</t>
-  </si>
-  <si>
-    <t>Override</t>
-  </si>
-  <si>
-    <t>Indicator</t>
-  </si>
-  <si>
-    <t>MD Network</t>
-  </si>
-  <si>
-    <t>MD Specialty</t>
-  </si>
-  <si>
-    <t>Care Facility</t>
-  </si>
-  <si>
-    <t>Restrictions</t>
-  </si>
-  <si>
-    <t>Pricing</t>
-  </si>
-  <si>
-    <t>Therapy</t>
-  </si>
-  <si>
-    <t>Brnd/Gen Subs</t>
-  </si>
-  <si>
-    <t>3rd Pty Excp</t>
-  </si>
-  <si>
-    <t>Legend OTC</t>
-  </si>
-  <si>
-    <t>FDA Ther Equi</t>
-  </si>
-  <si>
-    <t>DEA Code</t>
-  </si>
-  <si>
-    <t>Dosage Form</t>
-  </si>
-  <si>
-    <t>Route of Admn</t>
-  </si>
-  <si>
-    <t>Packaging</t>
-  </si>
-  <si>
-    <t>Maint Drug</t>
-  </si>
-  <si>
-    <t>Compound</t>
-  </si>
-  <si>
-    <t>of Service</t>
-  </si>
-  <si>
-    <t>Disp Lmts</t>
-  </si>
-  <si>
-    <t>Refill Limits</t>
-  </si>
-  <si>
-    <t>Limits</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Pay Qual</t>
-  </si>
-  <si>
-    <t>NDC List</t>
-  </si>
-  <si>
-    <t>GPI List</t>
-  </si>
-  <si>
-    <t>Verify COB</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Qualifier</t>
-  </si>
-  <si>
-    <t>Flag</t>
-  </si>
-  <si>
-    <t>Use Flag 1</t>
-  </si>
-  <si>
-    <t>Use Flag 2</t>
-  </si>
-  <si>
-    <t>Use Flag 3</t>
-  </si>
-  <si>
-    <t>Use Flag 4</t>
-  </si>
-  <si>
-    <t>Use Code 1</t>
-  </si>
-  <si>
-    <t>Use Code 2</t>
-  </si>
-  <si>
-    <t>Time</t>
+    <t>Plan Eligibility Override</t>
+  </si>
+  <si>
+    <t>Plan Verify Member</t>
+  </si>
+  <si>
+    <t>Plan Customer Location</t>
+  </si>
+  <si>
+    <t>Plan Verify RX Network</t>
+  </si>
+  <si>
+    <t>Plan Verify Care Facility</t>
+  </si>
+  <si>
+    <t>Plan Verify MD Network</t>
+  </si>
+  <si>
+    <t>Plan DEA Validation</t>
+  </si>
+  <si>
+    <t>Plan Verify MD Specialty</t>
+  </si>
+  <si>
+    <t>Plan Verify Compound</t>
+  </si>
+  <si>
+    <t>Plan Verify NDC List</t>
+  </si>
+  <si>
+    <t>Plan Verify GPI List</t>
+  </si>
+  <si>
+    <t>Plan Verify Maint Drug</t>
+  </si>
+  <si>
+    <t>Plan Verify DEA Code</t>
+  </si>
+  <si>
+    <t>Days Supply/Qty Disp Lmts</t>
+  </si>
+  <si>
+    <t>Plan Verify Refill Limits</t>
+  </si>
+  <si>
+    <t>Plan Verify Legend OTC</t>
+  </si>
+  <si>
+    <t>Plan Verify 3rd Pty Excp</t>
+  </si>
+  <si>
+    <t>Plan Verify Route of Admn</t>
+  </si>
+  <si>
+    <t>Plan Verify Dosage Form</t>
+  </si>
+  <si>
+    <t>Plan DESI Indicator</t>
+  </si>
+  <si>
+    <t>Plan Verify Packaging</t>
+  </si>
+  <si>
+    <t>Plan Verify FDA Ther Equi</t>
+  </si>
+  <si>
+    <t>Plan Verify Therapy</t>
+  </si>
+  <si>
+    <t>Plan Verify Brnd/Gen Subs</t>
+  </si>
+  <si>
+    <t>Plan Level of Service</t>
+  </si>
+  <si>
+    <t>Plan Preferred Formulary</t>
+  </si>
+  <si>
+    <t>Plan Verify Restrictions</t>
+  </si>
+  <si>
+    <t>Plan Verify Pricing</t>
+  </si>
+  <si>
+    <t>Deductible/Cap Limits</t>
+  </si>
+  <si>
+    <t>Plan Default Drug Status</t>
+  </si>
+  <si>
+    <t>PET Plan Type</t>
+  </si>
+  <si>
+    <t>Plan Qualifier</t>
+  </si>
+  <si>
+    <t>DUG Table Name</t>
+  </si>
+  <si>
+    <t>Plan Pref Prod Schedule</t>
+  </si>
+  <si>
+    <t>Plan Audit Flag</t>
+  </si>
+  <si>
+    <t>Plan Patient Pay Qual</t>
+  </si>
+  <si>
+    <t>Plan Verify Specialty Pgm</t>
+  </si>
+  <si>
+    <t>Plan Verify FormMgmtSrvc</t>
+  </si>
+  <si>
+    <t>Plan Discount Benefit</t>
+  </si>
+  <si>
+    <t>Plan Real-Time PA</t>
+  </si>
+  <si>
+    <t>Plan External Program</t>
+  </si>
+  <si>
+    <t>PE1 PQE Messaging Type</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>PE1 Plan Verify ServiceCd</t>
+  </si>
+  <si>
+    <t>SERVICE_CODE_LIST</t>
   </si>
   <si>
     <t xml:space="preserve">evu       </t>
@@ -493,7 +439,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,8 +574,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,8 +760,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -925,6 +888,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -970,8 +963,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1017,7 +1016,13 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1028,10 +1033,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1351,479 +1352,637 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BC3C7A-A9C0-4206-A1EC-2F608E4E98FB}">
-  <dimension ref="A1:BA28"/>
+  <dimension ref="A1:BA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="25.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" customWidth="1"/>
-    <col min="12" max="12" width="13.90625" customWidth="1"/>
-    <col min="26" max="26" width="15.36328125" customWidth="1"/>
-    <col min="53" max="53" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
+    <col min="53" max="53" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:53" ht="32.450000000000003">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AL1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AO1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AV1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
+    <row r="2" spans="1:53">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>911202</v>
+      </c>
+      <c r="C2">
+        <v>1391231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="R2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="S2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="U2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="W2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="X2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Y2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Z2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AB2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s">
         <v>54</v>
       </c>
       <c r="AH2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX2" t="s">
         <v>57</v>
       </c>
-      <c r="AK2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>67</v>
+      <c r="AY2">
+        <v>1011001</v>
+      </c>
+      <c r="AZ2">
+        <v>103004</v>
       </c>
       <c r="BA2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>910101</v>
+      </c>
+      <c r="C3">
+        <v>1391231</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY3">
+        <v>1030813</v>
+      </c>
+      <c r="AZ3">
+        <v>144558</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4">
-        <v>911202</v>
+        <v>930101</v>
       </c>
       <c r="C4">
         <v>1391231</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="U4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="V4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Z4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AA4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AB4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AE4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AF4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AG4" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AJ4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AP4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1832,159 +1991,159 @@
         <v>0</v>
       </c>
       <c r="AW4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AY4">
-        <v>1011001</v>
+        <v>1150612</v>
       </c>
       <c r="AZ4">
-        <v>103004</v>
+        <v>130613</v>
       </c>
       <c r="BA4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B5">
-        <v>910101</v>
+        <v>930101</v>
       </c>
       <c r="C5">
         <v>1391231</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="R5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="U5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="V5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="W5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="X5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Z5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AA5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AB5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AE5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AF5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AJ5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS5" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT5" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1993,24 +2152,24 @@
         <v>0</v>
       </c>
       <c r="AW5" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="AY5">
-        <v>1030813</v>
+        <v>930318</v>
       </c>
       <c r="AZ5">
-        <v>144558</v>
+        <v>160247</v>
       </c>
       <c r="BA5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>930101</v>
@@ -2019,133 +2178,133 @@
         <v>1391231</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="Q6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="R6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S6" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="U6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="V6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="W6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="X6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Y6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Z6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AA6" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AB6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC6" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AD6" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AE6" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AF6" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AJ6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK6" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2154,159 +2313,159 @@
         <v>0</v>
       </c>
       <c r="AW6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AY6">
-        <v>1150612</v>
+        <v>940120</v>
       </c>
       <c r="AZ6">
-        <v>130613</v>
+        <v>151837</v>
       </c>
       <c r="BA6" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B7">
-        <v>930101</v>
+        <v>910101</v>
       </c>
       <c r="C7">
         <v>1391231</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="P7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Q7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="R7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="U7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="V7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="W7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="X7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Y7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Z7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AA7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AB7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AE7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AF7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AJ7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM7" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2315,24 +2474,24 @@
         <v>0</v>
       </c>
       <c r="AW7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX7" t="s">
         <v>75</v>
       </c>
-      <c r="AX7" t="s">
-        <v>88</v>
-      </c>
       <c r="AY7">
-        <v>930318</v>
+        <v>1040519</v>
       </c>
       <c r="AZ7">
-        <v>160247</v>
+        <v>105135</v>
       </c>
       <c r="BA7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>930101</v>
@@ -2341,133 +2500,133 @@
         <v>1391231</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="P8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S8" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="U8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="V8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="W8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="X8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Y8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Z8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AA8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AB8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC8" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AD8" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AE8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AF8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI8" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AJ8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK8" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM8" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2476,159 +2635,159 @@
         <v>0</v>
       </c>
       <c r="AW8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AY8">
-        <v>940120</v>
+        <v>990513</v>
       </c>
       <c r="AZ8">
-        <v>151837</v>
+        <v>85629</v>
       </c>
       <c r="BA8" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B9">
-        <v>910101</v>
+        <v>930101</v>
       </c>
       <c r="C9">
         <v>1391231</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="Q9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="R9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="S9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="V9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="W9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="X9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Y9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Z9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AA9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AB9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AC9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AD9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AE9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AF9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AG9" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AI9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AJ9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AM9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AO9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AS9" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT9" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2637,24 +2796,24 @@
         <v>0</v>
       </c>
       <c r="AW9" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX9" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AY9">
-        <v>1040519</v>
+        <v>1081208</v>
       </c>
       <c r="AZ9">
-        <v>105135</v>
+        <v>135031</v>
       </c>
       <c r="BA9" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>930101</v>
@@ -2663,133 +2822,133 @@
         <v>1391231</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="M10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="P10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="R10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="U10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="V10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="W10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="X10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Y10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Z10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AA10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AB10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AE10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AF10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AJ10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK10" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL10" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM10" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS10" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT10" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2798,159 +2957,159 @@
         <v>0</v>
       </c>
       <c r="AW10" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AY10">
-        <v>990513</v>
+        <v>930609</v>
       </c>
       <c r="AZ10">
-        <v>85629</v>
+        <v>113150</v>
       </c>
       <c r="BA10" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B11">
-        <v>930101</v>
+        <v>910101</v>
       </c>
       <c r="C11">
         <v>1391231</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="N11" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="Q11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="R11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="S11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="V11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="W11" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="X11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="Y11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="Z11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AA11" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AB11" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AC11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AD11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AE11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AF11" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AI11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AJ11" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AL11" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="AM11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN11" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AO11" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP11" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ11" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="AS11" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT11" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2959,159 +3118,159 @@
         <v>0</v>
       </c>
       <c r="AW11" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AY11">
-        <v>1081208</v>
+        <v>970228</v>
       </c>
       <c r="AZ11">
-        <v>135031</v>
+        <v>123014</v>
       </c>
       <c r="BA11" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B12">
-        <v>930101</v>
+        <v>910101</v>
       </c>
       <c r="C12">
         <v>1391231</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="P12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="R12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="U12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="V12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="W12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="X12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Y12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Z12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AA12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AB12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD12" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AE12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AF12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AJ12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK12" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM12" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS12" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT12" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3120,159 +3279,159 @@
         <v>0</v>
       </c>
       <c r="AW12" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX12" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AY12">
-        <v>930609</v>
+        <v>990409</v>
       </c>
       <c r="AZ12">
-        <v>113150</v>
+        <v>162731</v>
       </c>
       <c r="BA12" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B13">
-        <v>910101</v>
+        <v>930101</v>
       </c>
       <c r="C13">
         <v>1391231</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="M13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="P13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="R13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="S13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="U13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="V13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="W13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="X13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="Y13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="Z13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AA13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AB13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AD13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AE13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AF13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AI13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AJ13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK13" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM13" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS13" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT13" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3281,320 +3440,320 @@
         <v>0</v>
       </c>
       <c r="AW13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX13" t="s">
         <v>75</v>
       </c>
-      <c r="AX13" t="s">
-        <v>111</v>
-      </c>
       <c r="AY13">
-        <v>970228</v>
+        <v>1020425</v>
       </c>
       <c r="AZ13">
-        <v>123014</v>
+        <v>135726</v>
       </c>
       <c r="BA13" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B14">
-        <v>910101</v>
+        <v>1010101</v>
       </c>
       <c r="C14">
         <v>1391231</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="M14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="P14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="R14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="U14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="V14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="W14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="X14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Y14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Z14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AB14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD14" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AE14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AF14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AJ14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK14" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM14" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO14" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AP14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT14" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>1040304</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>115840</v>
       </c>
       <c r="AW14" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AX14" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AY14">
-        <v>990409</v>
+        <v>1040304</v>
       </c>
       <c r="AZ14">
-        <v>162731</v>
+        <v>115843</v>
       </c>
       <c r="BA14" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B15">
-        <v>930101</v>
+        <v>931201</v>
       </c>
       <c r="C15">
         <v>1391231</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="N15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="R15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="S15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="V15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="W15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="X15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Y15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Z15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AA15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AB15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AC15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AD15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AE15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AF15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AG15" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AI15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AJ15" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK15" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="AL15" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM15" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN15" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO15" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP15" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ15" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR15" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS15" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT15" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3603,320 +3762,320 @@
         <v>0</v>
       </c>
       <c r="AW15" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX15" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="AY15">
-        <v>1020425</v>
+        <v>1050930</v>
       </c>
       <c r="AZ15">
-        <v>135726</v>
+        <v>104628</v>
       </c>
       <c r="BA15" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B16">
-        <v>1010101</v>
+        <v>910101</v>
       </c>
       <c r="C16">
         <v>1391231</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="M16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="R16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S16" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="U16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="V16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="W16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="X16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Y16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Z16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AA16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AB16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC16" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AD16" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AE16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AF16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AJ16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK16" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL16" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM16" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AN16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO16" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AP16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS16" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT16" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="AU16">
-        <v>1040304</v>
+        <v>0</v>
       </c>
       <c r="AV16">
-        <v>115840</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="AX16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AY16">
-        <v>1040304</v>
+        <v>951228</v>
       </c>
       <c r="AZ16">
-        <v>115843</v>
+        <v>123655</v>
       </c>
       <c r="BA16" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B17">
-        <v>931201</v>
+        <v>930101</v>
       </c>
       <c r="C17">
         <v>1391231</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="N17" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="R17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="S17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="U17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="V17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="W17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="X17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="Y17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="Z17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AA17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AB17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AC17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AD17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AE17" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AF17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AG17" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AI17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AJ17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS17" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT17" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -3925,159 +4084,159 @@
         <v>0</v>
       </c>
       <c r="AW17" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX17" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="AY17">
-        <v>1050930</v>
+        <v>970717</v>
       </c>
       <c r="AZ17">
-        <v>104628</v>
+        <v>100314</v>
       </c>
       <c r="BA17" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:53">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B18">
-        <v>910101</v>
+        <v>940512</v>
       </c>
       <c r="C18">
         <v>1391231</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="L18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="M18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="N18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="R18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="S18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="V18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="W18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="X18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Y18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Z18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AA18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AB18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AC18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AD18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AE18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AF18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AG18" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AI18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AJ18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK18" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL18" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AP18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS18" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT18" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4086,159 +4245,159 @@
         <v>0</v>
       </c>
       <c r="AW18" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX18" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="AY18">
-        <v>951228</v>
+        <v>940513</v>
       </c>
       <c r="AZ18">
-        <v>123655</v>
+        <v>161057</v>
       </c>
       <c r="BA18" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:53">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B19">
-        <v>930101</v>
+        <v>940101</v>
       </c>
       <c r="C19">
         <v>1391231</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L19" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="M19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="N19" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="R19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="S19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="T19" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="V19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="W19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="X19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="Y19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="Z19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AA19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AB19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AC19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AD19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AE19" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AF19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AG19" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AI19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AJ19" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK19" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL19" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN19" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO19" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP19" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ19" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR19" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS19" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT19" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4247,159 +4406,159 @@
         <v>0</v>
       </c>
       <c r="AW19" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX19" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="AY19">
-        <v>970717</v>
+        <v>981201</v>
       </c>
       <c r="AZ19">
-        <v>100314</v>
+        <v>83819</v>
       </c>
       <c r="BA19" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:53">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B20">
-        <v>940512</v>
+        <v>940101</v>
       </c>
       <c r="C20">
         <v>1391231</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="L20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="P20" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="R20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="S20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="U20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="V20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="W20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="X20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="Y20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="Z20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AA20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AB20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AC20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AD20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AE20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AF20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AJ20" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK20" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL20" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM20" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN20" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO20" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AP20" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ20" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR20" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS20" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT20" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4408,24 +4567,24 @@
         <v>0</v>
       </c>
       <c r="AW20" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX20" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AY20">
-        <v>940513</v>
+        <v>1020830</v>
       </c>
       <c r="AZ20">
-        <v>161057</v>
+        <v>91602</v>
       </c>
       <c r="BA20" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:53">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B21">
         <v>940101</v>
@@ -4434,133 +4593,133 @@
         <v>1391231</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="L21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="P21" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="R21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="S21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="U21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="V21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="W21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="X21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="Y21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="Z21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AA21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AB21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AC21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AD21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AE21" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AF21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AJ21" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK21" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="AL21" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM21" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN21" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO21" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP21" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ21" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS21" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT21" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -4569,24 +4728,24 @@
         <v>0</v>
       </c>
       <c r="AW21" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX21" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AY21">
-        <v>981201</v>
+        <v>961024</v>
       </c>
       <c r="AZ21">
-        <v>83819</v>
+        <v>142243</v>
       </c>
       <c r="BA21" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:53">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B22">
         <v>940101</v>
@@ -4595,133 +4754,133 @@
         <v>1391231</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="P22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="R22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="U22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="V22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="W22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="X22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Y22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Z22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AA22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AB22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AE22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AF22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AJ22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK22" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL22" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM22" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR22" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS22" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT22" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -4730,159 +4889,159 @@
         <v>0</v>
       </c>
       <c r="AW22" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AY22">
-        <v>1020830</v>
+        <v>970303</v>
       </c>
       <c r="AZ22">
-        <v>91602</v>
+        <v>100132</v>
       </c>
       <c r="BA22" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:53">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B23">
-        <v>940101</v>
+        <v>910101</v>
       </c>
       <c r="C23">
         <v>1391231</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="M23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="N23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="O23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="R23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="S23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="V23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="W23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="X23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Y23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Z23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AA23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AB23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AD23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AE23" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AF23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AG23" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AJ23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK23" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="AL23" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM23" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS23" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT23" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -4891,159 +5050,159 @@
         <v>0</v>
       </c>
       <c r="AW23" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX23" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="AY23">
-        <v>961024</v>
+        <v>950308</v>
       </c>
       <c r="AZ23">
-        <v>142243</v>
+        <v>182932</v>
       </c>
       <c r="BA23" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:53">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B24">
-        <v>940101</v>
+        <v>950411</v>
       </c>
       <c r="C24">
         <v>1391231</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="M24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="P24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="U24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="V24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="W24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="X24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Y24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Z24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AA24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AB24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AE24" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AF24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG24" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AJ24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK24" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL24" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM24" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR24" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS24" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT24" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5052,159 +5211,159 @@
         <v>0</v>
       </c>
       <c r="AW24" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX24" t="s">
         <v>111</v>
       </c>
       <c r="AY24">
-        <v>970303</v>
+        <v>950411</v>
       </c>
       <c r="AZ24">
-        <v>100132</v>
+        <v>74328</v>
       </c>
       <c r="BA24" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:53">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B25">
-        <v>910101</v>
+        <v>950202</v>
       </c>
       <c r="C25">
         <v>1391231</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="M25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="N25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="O25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P25" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q25" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="R25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="S25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="T25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="V25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="W25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="X25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="Y25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="Z25" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AA25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AB25" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AC25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AD25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AE25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AF25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AG25" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH25" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AJ25" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK25" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL25" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AN25" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO25" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP25" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ25" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR25" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS25" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT25" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5213,505 +5372,188 @@
         <v>0</v>
       </c>
       <c r="AW25" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX25" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AY25">
-        <v>950308</v>
+        <v>950713</v>
       </c>
       <c r="AZ25">
-        <v>182932</v>
+        <v>172234</v>
       </c>
       <c r="BA25" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:53">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B26">
-        <v>950411</v>
+        <v>950801</v>
       </c>
       <c r="C26">
         <v>1391231</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="M26" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="N26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="P26" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Q26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="R26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="U26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="V26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="W26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="X26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Y26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Z26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AA26" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AB26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AE26" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AF26" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AG26" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AH26" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AI26" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AJ26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK26" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AL26" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AM26" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AN26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AO26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AP26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AQ26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR26" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AS26" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AT26" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>1061006</v>
       </c>
       <c r="AV26">
         <v>0</v>
       </c>
       <c r="AW26" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AX26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AY26">
-        <v>950411</v>
+        <v>1080311</v>
       </c>
       <c r="AZ26">
-        <v>74328</v>
+        <v>144413</v>
       </c>
       <c r="BA26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27">
-        <v>950202</v>
-      </c>
-      <c r="C27">
-        <v>1391231</v>
-      </c>
-      <c r="D27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" t="s">
-        <v>71</v>
-      </c>
-      <c r="M27" t="s">
-        <v>71</v>
-      </c>
-      <c r="N27" t="s">
-        <v>71</v>
-      </c>
-      <c r="O27" t="s">
-        <v>71</v>
-      </c>
-      <c r="P27" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>71</v>
-      </c>
-      <c r="R27" t="s">
-        <v>71</v>
-      </c>
-      <c r="S27" t="s">
-        <v>71</v>
-      </c>
-      <c r="T27" t="s">
-        <v>71</v>
-      </c>
-      <c r="U27" t="s">
-        <v>71</v>
-      </c>
-      <c r="V27" t="s">
-        <v>71</v>
-      </c>
-      <c r="W27" t="s">
-        <v>71</v>
-      </c>
-      <c r="X27" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY27">
-        <v>950713</v>
-      </c>
-      <c r="AZ27">
-        <v>172234</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28">
-        <v>950801</v>
-      </c>
-      <c r="C28">
-        <v>1391231</v>
-      </c>
-      <c r="D28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s">
-        <v>70</v>
-      </c>
-      <c r="M28" t="s">
-        <v>71</v>
-      </c>
-      <c r="N28" t="s">
-        <v>70</v>
-      </c>
-      <c r="O28" t="s">
-        <v>70</v>
-      </c>
-      <c r="P28" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>70</v>
-      </c>
-      <c r="R28" t="s">
-        <v>70</v>
-      </c>
-      <c r="S28" t="s">
-        <v>70</v>
-      </c>
-      <c r="T28" t="s">
-        <v>70</v>
-      </c>
-      <c r="U28" t="s">
-        <v>70</v>
-      </c>
-      <c r="V28" t="s">
-        <v>70</v>
-      </c>
-      <c r="W28" t="s">
-        <v>70</v>
-      </c>
-      <c r="X28" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU28">
-        <v>1061006</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>150</v>
-      </c>
-      <c r="AY28">
-        <v>1080311</v>
-      </c>
-      <c r="AZ28">
-        <v>144413</v>
-      </c>
-      <c r="BA28" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="AX1">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>LEN($A1) &gt; 25</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5720,9 +5562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA3E4F7-E313-463A-B7DA-FBF5DA31D7E2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
